--- a/notebooks/mkappa/verification_data/Rem20/Abbildung_4-12/rem18_4-12-b.xlsx
+++ b/notebooks/mkappa/verification_data/Rem20/Abbildung_4-12/rem18_4-12-b.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_cross_section\bmcs_cross_section\mkappa\verification_data\Rem20\Abbildung 4-12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_cross_section\notebooks\mkappa\verification_data\rem20\Abbildung_4-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C70B77-9101-462B-860C-5BB6EF285E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD53EAF-EBA4-4A85-9D4D-87A412CBC355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="5840" windowWidth="10800" windowHeight="8780" xr2:uid="{CAF1BFB9-BD25-417B-BAC8-1E1A523DF570}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CAF1BFB9-BD25-417B-BAC8-1E1A523DF570}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,529 +407,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F119BCE-D4E6-4393-82F6-F502BBE81405}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>9.9667774086378727E-4</v>
       </c>
       <c r="B3" s="1">
         <v>1.9354838709677417E-2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1">
+        <v>2.990033222591362E-3</v>
+      </c>
       <c r="D3" s="1">
-        <v>2.990033222591362E-3</v>
+        <v>6.6532258064516125E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>6.6532258064516125E-2</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1">
         <v>1.9933554817275745E-3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1">
         <v>0.14274193548387096</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2.990033222591362E-3</v>
       </c>
       <c r="B4" s="1">
         <v>2.6612903225806454E-2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1">
+        <v>4.9833887043189374E-3</v>
+      </c>
       <c r="D4" s="1">
-        <v>4.9833887043189374E-3</v>
+        <v>0.10282258064516128</v>
       </c>
       <c r="E4" s="1">
-        <v>0.10282258064516128</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1">
         <v>3.9867109634551491E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="F4" s="1">
         <v>0.18508064516129033</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3.9867109634551491E-3</v>
       </c>
       <c r="B5" s="1">
         <v>3.2661290322580645E-2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1">
+        <v>7.9734219269102981E-3</v>
+      </c>
       <c r="D5" s="1">
-        <v>7.9734219269102981E-3</v>
+        <v>7.0161290322580644E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>7.0161290322580644E-2</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1">
         <v>5.980066445182724E-3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
         <v>0.17056451612903226</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2.990033222591362E-3</v>
       </c>
       <c r="B6" s="1">
         <v>4.2338709677419359E-2</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1">
+        <v>1.1960132890365448E-2</v>
+      </c>
       <c r="D6" s="1">
-        <v>1.1960132890365448E-2</v>
+        <v>8.3467741935483855E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>8.3467741935483855E-2</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
         <v>8.9700996677740865E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1">
         <v>0.2008064516129032</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3.9867109634551491E-3</v>
       </c>
       <c r="B7" s="1">
         <v>4.7177419354838705E-2</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1">
+        <v>1.2956810631229235E-2</v>
+      </c>
       <c r="D7" s="1">
-        <v>1.2956810631229235E-2</v>
+        <v>5.2016129032258066E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>5.2016129032258066E-2</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
         <v>1.0963455149501661E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="F7" s="1">
         <v>0.2153225806451613</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3.9867109634551491E-3</v>
       </c>
       <c r="B8" s="1">
         <v>5.9274193548387089E-2</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1">
+        <v>1.8936877076411958E-2</v>
+      </c>
       <c r="D8" s="1">
-        <v>1.8936877076411958E-2</v>
+        <v>6.6532258064516125E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>6.6532258064516125E-2</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1">
         <v>1.1960132890365448E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="F8" s="1">
         <v>0.19354838709677419</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>4.9833887043189374E-3</v>
       </c>
       <c r="B9" s="1">
         <v>6.774193548387096E-2</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="1">
+        <v>2.2923588039867108E-2</v>
+      </c>
       <c r="D9" s="1">
-        <v>2.2923588039867108E-2</v>
+        <v>4.4758064516129036E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>4.4758064516129036E-2</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1">
         <v>1.7940199335548173E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="F9" s="1">
         <v>0.2153225806451613</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>6.9767441860465115E-3</v>
       </c>
       <c r="B10" s="1">
         <v>8.225806451612902E-2</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1">
+        <v>2.5913621262458469E-2</v>
+      </c>
       <c r="D10" s="1">
-        <v>2.5913621262458469E-2</v>
+        <v>5.0806451612903224E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>5.0806451612903224E-2</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1">
         <v>1.7940199335548173E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="F10" s="1">
         <v>0.19475806451612901</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8.9700996677740865E-3</v>
       </c>
       <c r="B11" s="1">
         <v>6.048387096774193E-2</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1">
+        <v>2.8903654485049834E-2</v>
+      </c>
       <c r="D11" s="1">
-        <v>2.8903654485049834E-2</v>
+        <v>5.6854838709677419E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>5.6854838709677419E-2</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1">
         <v>2.1926910299003323E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="F11" s="1">
         <v>0.19838709677419353</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1.1960132890365448E-2</v>
       </c>
       <c r="B12" s="1">
         <v>5.3225806451612907E-2</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1">
+        <v>2.8903654485049834E-2</v>
+      </c>
       <c r="D12" s="1">
-        <v>2.8903654485049834E-2</v>
+        <v>6.1693548387096772E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>6.1693548387096772E-2</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1">
         <v>2.1926910299003323E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="F12" s="1">
         <v>0.1875</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1.495016611295681E-2</v>
       </c>
       <c r="B13" s="1">
         <v>3.8709677419354833E-2</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1">
+        <v>3.2890365448504981E-2</v>
+      </c>
       <c r="D13" s="1">
-        <v>3.2890365448504981E-2</v>
+        <v>6.774193548387096E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>6.774193548387096E-2</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1">
         <v>2.4916943521594685E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="F13" s="1">
         <v>0.19596774193548386</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1.6943521594684385E-2</v>
       </c>
       <c r="B14" s="1">
         <v>1.8145161290322582E-2</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1">
+        <v>3.5880398671096346E-2</v>
+      </c>
       <c r="D14" s="1">
-        <v>3.5880398671096346E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E14" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1">
         <v>2.6910299003322261E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="F14" s="1">
         <v>0.20443548387096772</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2.0930232558139535E-2</v>
       </c>
       <c r="B15" s="1">
         <v>2.2983870967741935E-2</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1">
+        <v>3.5880398671096346E-2</v>
+      </c>
       <c r="D15" s="1">
-        <v>3.5880398671096346E-2</v>
+        <v>7.9838709677419351E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>7.9838709677419351E-2</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1">
         <v>2.7906976744186046E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="F15" s="1">
         <v>0.20806451612903226</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2.5913621262458469E-2</v>
       </c>
       <c r="B16" s="1">
         <v>3.5080645161290322E-2</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1">
+        <v>3.8870431893687704E-2</v>
+      </c>
       <c r="D16" s="1">
-        <v>3.8870431893687704E-2</v>
+        <v>8.7096774193548387E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>8.7096774193548387E-2</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1">
         <v>3.0897009966777404E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="F16" s="1">
         <v>0.21411290322580645</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3.0897009966777404E-2</v>
       </c>
       <c r="B17" s="1">
         <v>4.596774193548387E-2</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1">
+        <v>4.2857142857142851E-2</v>
+      </c>
       <c r="D17" s="1">
-        <v>4.2857142857142851E-2</v>
+        <v>9.3145161290322576E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>9.3145161290322576E-2</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1">
         <v>3.2890365448504981E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="F17" s="1">
         <v>0.19596774193548386</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>3.7873754152823916E-2</v>
       </c>
       <c r="B18" s="1">
         <v>5.3225806451612907E-2</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="1">
+        <v>4.3853820598006646E-2</v>
+      </c>
       <c r="D18" s="1">
-        <v>4.3853820598006646E-2</v>
+        <v>0.1004032258064516</v>
       </c>
       <c r="E18" s="1">
-        <v>0.1004032258064516</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1">
         <v>4.9833887043189369E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="F18" s="1">
         <v>0.23709677419354835</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>3.8870431893687704E-2</v>
       </c>
       <c r="B19" s="1">
         <v>4.8387096774193547E-2</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="1">
+        <v>4.9833887043189369E-2</v>
+      </c>
       <c r="D19" s="1">
-        <v>4.9833887043189369E-2</v>
+        <v>0.10766129032258065</v>
       </c>
       <c r="E19" s="1">
-        <v>0.10766129032258065</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1">
         <v>5.2823920265780727E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="F19" s="1">
         <v>0.22379032258064516</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>3.9867109634551499E-2</v>
       </c>
       <c r="B20" s="1">
         <v>3.9919354838709675E-2</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="1">
+        <v>5.1827242524916939E-2</v>
+      </c>
       <c r="D20" s="1">
-        <v>5.1827242524916939E-2</v>
+        <v>8.9516129032258071E-2</v>
       </c>
       <c r="E20" s="1">
-        <v>8.9516129032258071E-2</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1">
         <v>5.2823920265780727E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="F20" s="1">
         <v>0.20201612903225805</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>4.1860465116279069E-2</v>
       </c>
       <c r="B21" s="1">
         <v>3.6290322580645164E-2</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="1">
+        <v>5.6810631229235874E-2</v>
+      </c>
       <c r="D21" s="1">
-        <v>5.6810631229235874E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="E21" s="1">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1">
         <v>5.4817275747508304E-2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="F21" s="1">
         <v>0.19112903225806452</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>4.4850498338870434E-2</v>
       </c>
       <c r="B22" s="1">
         <v>4.2338709677419359E-2</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="1">
+        <v>5.9800664451827239E-2</v>
+      </c>
       <c r="D22" s="1">
-        <v>5.9800664451827239E-2</v>
+        <v>0.10524193548387097</v>
       </c>
       <c r="E22" s="1">
-        <v>0.10524193548387097</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1">
         <v>6.677740863787375E-2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="F22" s="1">
         <v>0.2153225806451613</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>4.9833887043189369E-2</v>
       </c>
       <c r="B23" s="1">
         <v>4.9596774193548382E-2</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="1">
+        <v>6.8770764119601327E-2</v>
+      </c>
       <c r="D23" s="1">
-        <v>6.8770764119601327E-2</v>
+        <v>0.12096774193548386</v>
       </c>
       <c r="E23" s="1">
-        <v>0.12096774193548386</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1">
         <v>6.7774086378737539E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="F23" s="1">
         <v>0.21048387096774193</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>5.2823920265780727E-2</v>
       </c>
@@ -938,16 +892,14 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1">
+      <c r="E24" s="1">
         <v>7.0764119601328904E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="F24" s="1">
         <v>0.21653225806451612</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>5.5813953488372092E-2</v>
       </c>
@@ -956,16 +908,14 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1">
+      <c r="E25" s="1">
         <v>7.6744186046511634E-2</v>
       </c>
-      <c r="H25" s="1">
+      <c r="F25" s="1">
         <v>0.22741935483870968</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>6.0797342192691027E-2</v>
       </c>
@@ -974,16 +924,14 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1">
+      <c r="E26" s="1">
         <v>7.8737541528239197E-2</v>
       </c>
-      <c r="H26" s="1">
+      <c r="F26" s="1">
         <v>0.21774193548387097</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>6.2790697674418611E-2</v>
       </c>
@@ -992,16 +940,14 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1">
+      <c r="E27" s="1">
         <v>8.5714285714285701E-2</v>
       </c>
-      <c r="H27" s="1">
+      <c r="F27" s="1">
         <v>0.22741935483870968</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>6.677740863787375E-2</v>
       </c>
@@ -1010,16 +956,14 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1">
+      <c r="E28" s="1">
         <v>8.8704318936877066E-2</v>
       </c>
-      <c r="H28" s="1">
+      <c r="F28" s="1">
         <v>0.21895161290322582</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>7.4750830564784043E-2</v>
       </c>
@@ -1028,16 +972,14 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1">
+      <c r="E29" s="1">
         <v>0.1026578073089701</v>
       </c>
-      <c r="H29" s="1">
+      <c r="F29" s="1">
         <v>0.23588709677419353</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>7.5747508305647832E-2</v>
       </c>
@@ -1046,16 +988,14 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1">
+      <c r="E30" s="1">
         <v>0.10564784053156145</v>
       </c>
-      <c r="H30" s="1">
+      <c r="F30" s="1">
         <v>0.23104838709677417</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>8.6710963455149503E-2</v>
       </c>
@@ -1064,16 +1004,14 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1">
+      <c r="E31" s="1">
         <v>0.11461794019933555</v>
       </c>
-      <c r="H31" s="1">
+      <c r="F31" s="1">
         <v>0.24193548387096772</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>8.9700996677740868E-2</v>
       </c>
@@ -1082,16 +1020,14 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1">
+      <c r="E32" s="1">
         <v>0.11760797342192691</v>
       </c>
-      <c r="H32" s="1">
+      <c r="F32" s="1">
         <v>0.23225806451612901</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>9.4684385382059796E-2</v>
       </c>
@@ -1100,16 +1036,14 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1">
+      <c r="E33" s="1">
         <v>0.12458471760797342</v>
       </c>
-      <c r="H33" s="1">
+      <c r="F33" s="1">
         <v>0.24072580645161287</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>9.867109634551495E-2</v>
       </c>
@@ -1118,16 +1052,14 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1">
+      <c r="E34" s="1">
         <v>0.1335548172757475</v>
       </c>
-      <c r="H34" s="1">
+      <c r="F34" s="1">
         <v>0.25161290322580643</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.10465116279069768</v>
       </c>
@@ -1136,180 +1068,154 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="1">
+      <c r="E35" s="1">
         <v>0.1425249169435216</v>
       </c>
-      <c r="H35" s="1">
+      <c r="F35" s="1">
         <v>0.26008064516129031</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="1">
+      <c r="E36" s="1">
         <v>0.15548172757475082</v>
       </c>
-      <c r="H36" s="1">
+      <c r="F36" s="1">
         <v>0.2685483870967742</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1">
+      <c r="E37" s="1">
         <v>0.159468438538206</v>
       </c>
-      <c r="H37" s="1">
+      <c r="F37" s="1">
         <v>0.25887096774193546</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
+      <c r="E38" s="1">
         <v>0.16644518272425249</v>
       </c>
-      <c r="H38" s="1">
+      <c r="F38" s="1">
         <v>0.26491935483870965</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1">
+      <c r="E39" s="1">
         <v>0.17043189368770761</v>
       </c>
-      <c r="H39" s="1">
+      <c r="F39" s="1">
         <v>0.25766129032258062</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1">
+      <c r="E40" s="1">
         <v>0.17242524916943522</v>
       </c>
-      <c r="H40" s="1">
+      <c r="F40" s="1">
         <v>0.24556451612903227</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1">
+      <c r="E41" s="1">
         <v>0.17940199335548174</v>
       </c>
-      <c r="H41" s="1">
+      <c r="F41" s="1">
         <v>0.25645161290322582</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1">
+      <c r="E42" s="1">
         <v>0.18139534883720929</v>
       </c>
-      <c r="H42" s="1">
+      <c r="F42" s="1">
         <v>0.25040322580645163</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1">
+      <c r="E43" s="1">
         <v>0.18637873754152823</v>
       </c>
-      <c r="H43" s="1">
+      <c r="F43" s="1">
         <v>0.25766129032258062</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1">
+      <c r="E44" s="1">
         <v>0.19534883720930232</v>
       </c>
-      <c r="H44" s="1">
+      <c r="F44" s="1">
         <v>0.26733870967741935</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1">
+      <c r="E45" s="1">
         <v>0.20431893687707642</v>
       </c>
-      <c r="H45" s="1">
+      <c r="F45" s="1">
         <v>0.27459677419354839</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="1">
+      <c r="E46" s="1">
         <v>0.21328903654485049</v>
       </c>
-      <c r="H46" s="1">
+      <c r="F46" s="1">
         <v>0.28064516129032258</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1">
+      <c r="E47" s="1">
         <v>0.22724252491694349</v>
       </c>
-      <c r="H47" s="1">
+      <c r="F47" s="1">
         <v>0.28669354838709676</v>
       </c>
     </row>
